--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject5.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject5.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.77580724980752813</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.82586055366399336</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -227,7 +227,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0</v>
+        <v>0.85235611279686663</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.81718408808870158</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.83812111459091332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.59945557633100943</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.63907073204947362</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.50502040455634867</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.76397508179366869</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -535,15 +535,15 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.68741968858033697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.9811601196580918</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.56743211852444908</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.97452961514690473</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>0</v>
+        <v>0.82644630462241553</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.76223124490013561</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.87320026544191176</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="0">
-        <v>0</v>
+        <v>0.77552984195835928</v>
       </c>
       <c r="BE4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.86797070797090292</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.57500096329822148</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.85526944704841479</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0</v>
+        <v>0.95430484005366334</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.68781815798970869</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.59758593918418501</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.94892009155707435</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0</v>
+        <v>0.82884980258872742</v>
       </c>
       <c r="L6" s="0">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>0</v>
+        <v>0.99960469088814308</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.61563742196606985</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.60619236323764136</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.85765176500167839</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.95238020131827383</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BO7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.84493915912732209</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.8042736446165426</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>0</v>
+        <v>0.80169639595963949</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.58359846954576</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.71317889394818601</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.95583349362269976</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.78141562386532681</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.58250837973955139</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.86892764092634467</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0</v>
+        <v>0.92774004978385527</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>0</v>
+        <v>0.80150218151285557</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="BD10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>0.71979264498969897</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.96832258681677652</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.68373706687040647</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>0</v>
+        <v>0.7080149028834678</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.83537939909408776</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.77734087085826553</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>0</v>
+        <v>0.79832963905269672</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.82471672105423899</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.97950787499907921</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="0">
-        <v>0</v>
+        <v>0.98306459256651046</v>
       </c>
       <c r="AF13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.61628624808411336</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2833,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0</v>
+        <v>0.78944545748440009</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.66534326727268089</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.75727075362067642</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0</v>
+        <v>0.7285019482774564</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0</v>
+        <v>0.90995290647893845</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.75942776169615611</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.5947750978668449</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.52389182048286498</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="0">
-        <v>0</v>
+        <v>0.8623830003939521</v>
       </c>
       <c r="AI15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.91837301366792334</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.84745787227355418</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="0">
-        <v>0</v>
+        <v>0.5832435907731901</v>
       </c>
       <c r="BJ16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.89264036866478902</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.68934814965265279</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.90511986346440443</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.55908039887137706</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="BB17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="0">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.5327362399770641</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.70891372885897852</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.651825239307949</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.50121530131755399</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>0</v>
+        <v>0.7660937479372486</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3884,25 +3884,25 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.92630010687754738</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.82862081351744687</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.50865862791668548</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.60197053841695891</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.52106677290557768</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.51949561337232275</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.65394402000846408</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>0</v>
+        <v>0.75480858314986876</v>
       </c>
       <c r="BK20" s="0">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="0">
-        <v>1</v>
+        <v>0.81336993139075353</v>
       </c>
       <c r="BP20" s="0">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.67065730282689007</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.55314383386770027</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.60022565899393188</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="BB21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>0.91227132869627114</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>0</v>
+        <v>0.9296230795448075</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.75149412252086489</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.80298159120256918</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.91824266758032158</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.98024396303251082</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0</v>
+        <v>0.57036335278866046</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4714,25 +4714,25 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.90441495442881248</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.65790415227779153</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.6761871392911758</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.50434658758268869</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>0</v>
+        <v>0.96607526541938493</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>0</v>
+        <v>0.83508116517173048</v>
       </c>
     </row>
     <row r="25">
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.65555992747198433</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.67459411929274227</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.50165402503352685</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>0</v>
+        <v>0.72276186346140148</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>0.5227830831842134</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.69097955528154642</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.97481533237734974</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0</v>
+        <v>0.93073947845747451</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.59728114105203201</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.97124895606041961</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.82062999167060213</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.60460570193202834</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="AM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0</v>
+        <v>0.71390757115003911</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>0</v>
+        <v>0.60428947425890822</v>
       </c>
       <c r="BH28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.76355538005975365</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.63646226570378106</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0</v>
+        <v>0.98827977063021244</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6183,16 +6183,16 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.60840968355910263</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6264,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="BC30" s="0">
-        <v>0</v>
+        <v>0.67430128613642459</v>
       </c>
       <c r="BD30" s="0">
-        <v>0</v>
+        <v>0.75482538951690703</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -6344,13 +6344,13 @@
         <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>0</v>
+        <v>0.56008149134186858</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.96851713497441549</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.90816037399848604</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>0</v>
+        <v>0.82323494857086355</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.53713189248195459</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.68235455754391316</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="AX32" s="0">
-        <v>0</v>
+        <v>0.57377442424144398</v>
       </c>
       <c r="AY32" s="0">
         <v>0</v>
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.85177307478118136</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.7737390237229298</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="BD33" s="0">
-        <v>0</v>
+        <v>0.7139357499703376</v>
       </c>
       <c r="BE33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="0">
-        <v>0</v>
+        <v>0.5735689793543497</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.61491332718429792</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.73914172227768737</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>0</v>
+        <v>0.91645491246673516</v>
       </c>
       <c r="AU34" s="0">
         <v>0</v>
@@ -7103,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.84894917488629118</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.56600104860251554</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.69289209109070748</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.59107111681806335</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.8346838618446133</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.7960856010860895</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.87777894102342224</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.58922971266596225</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.77725935457090234</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7488,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="AY36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>0</v>
+        <v>0.80911911625885535</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.66081358933869438</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.58476428133313996</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.60960414160688481</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.87813917625978855</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AW37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0</v>
+        <v>0.54635133291696869</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7855,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.65076672439072003</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.79118002822396827</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7876,13 +7876,13 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="0">
-        <v>0</v>
+        <v>0.88125151277774783</v>
       </c>
       <c r="AR38" s="0">
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0</v>
+        <v>0.87226516527340081</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0</v>
+        <v>0.75940067663568034</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.9626672622520267</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.64355843422662362</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="BO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP39" s="0">
-        <v>0</v>
+        <v>0.86738946544119888</v>
       </c>
     </row>
     <row r="40">
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="0">
         <v>0</v>
@@ -8276,16 +8276,16 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.95050514651407658</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.84595425816206848</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.62836281561176532</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AU40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="0">
         <v>0</v>
@@ -8482,22 +8482,22 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.76684700638544268</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.57922794942681677</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
       </c>
       <c r="AR41" s="0">
-        <v>0</v>
+        <v>0.72605111947636625</v>
       </c>
       <c r="AS41" s="0">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="BD41" s="0">
-        <v>0</v>
+        <v>0.74929719690449814</v>
       </c>
       <c r="BE41" s="0">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8691,22 +8691,22 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.7821657685468979</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.90081215763731359</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.58899142835050178</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
-        <v>0</v>
+        <v>0.52402896709562574</v>
       </c>
       <c r="AT42" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0</v>
+        <v>0.6951344603967381</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="0">
-        <v>0</v>
+        <v>0.70088897125527905</v>
       </c>
       <c r="AM43" s="0">
         <v>0</v>
@@ -8903,16 +8903,16 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.95982139319267734</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.97655526401450676</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9106,19 +9106,19 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0</v>
+        <v>0.5146936589777773</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.84489761374216854</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.7415594917961571</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="BB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC44" s="0">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="BN44" s="0">
-        <v>0</v>
+        <v>0.76315870969406607</v>
       </c>
       <c r="BO44" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="0">
-        <v>0</v>
+        <v>0.92500958106403852</v>
       </c>
       <c r="AF45" s="0">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>0</v>
+        <v>0.91051016801473628</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9315,22 +9315,22 @@
         <v>0</v>
       </c>
       <c r="AP45" s="0">
-        <v>0</v>
+        <v>0.66437897386374689</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.94806507951923535</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.69294376208691544</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.61775422170727912</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>0</v>
+        <v>0.78879798640423116</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.99133393506134926</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.74454229682384176</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.58483523141327376</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.78322371975954752</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.50424406175306202</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.52731887934301525</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.89275396889809255</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.79778177255257177</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.51149423314162634</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.64141510549541259</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0</v>
+        <v>0.57660580549799045</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.7631058399246915</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.87284602406716205</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.66192239827148303</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0</v>
+        <v>0.50549782848873348</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10363,22 +10363,22 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.92424000000394724</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.7937652950567049</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.94038045403084647</v>
       </c>
       <c r="BA50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.73785634822021762</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.83975031564942193</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.8697325084862827</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>0</v>
+        <v>0.82951212142052067</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0</v>
+        <v>0.62386304789950797</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0</v>
+        <v>0.62045815692316619</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.64684877864394186</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK52" s="0">
         <v>0</v>
@@ -10987,10 +10987,10 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.64509551996424308</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.97042443651324728</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.67559918230020821</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="0">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="0">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.54648945555685291</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.81999040926664102</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.87841657614734925</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="AD55" s="0">
-        <v>0</v>
+        <v>0.88928286861649375</v>
       </c>
       <c r="AE55" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.67424829041846901</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.63940990697397138</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.77607008679421741</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.96183672226651762</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11467,10 +11467,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>0</v>
+        <v>0.63974303996701787</v>
       </c>
       <c r="E56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="0">
         <v>0</v>
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="0">
         <v>0</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>0</v>
+        <v>0.90361888390836598</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="0">
-        <v>0</v>
+        <v>0.75806744760135714</v>
       </c>
       <c r="AE56" s="0">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="AG56" s="0">
-        <v>0</v>
+        <v>0.69721330951828353</v>
       </c>
       <c r="AH56" s="0">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AO56" s="0">
-        <v>0</v>
+        <v>0.5061738030503341</v>
       </c>
       <c r="AP56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.62385732840717223</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0</v>
+        <v>0.92768590270754614</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.50730855838323086</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11835,10 +11835,10 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.85022961267051844</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.77253707201966115</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.60220818075861393</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.71339316007043196</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="0">
-        <v>0</v>
+        <v>0.75556373734932558</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.85708498216777751</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.71492298255120734</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.62457754083797967</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.94334044540144601</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.84143432761112713</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.59772841445396385</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.60269129479393502</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="0">
-        <v>0</v>
+        <v>0.8625726215915841</v>
       </c>
       <c r="Q61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.97003156972527826</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.6182967660375468</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.88694171198803429</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0</v>
+        <v>0.7066790552978881</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="0">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.95079386513254627</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.67576049008765526</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.55973269634889444</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.87097044619841713</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="BP63" s="0">
-        <v>0</v>
+        <v>0.98080773538942667</v>
       </c>
     </row>
     <row r="64">
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.87147423912788757</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.80254336285545247</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.96935568923703186</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.92624902612836202</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.78433081334402943</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.73231886206107411</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.59955745397931315</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="0">
-        <v>0</v>
+        <v>0.82641746595946419</v>
       </c>
       <c r="AS66" s="0">
         <v>0</v>
@@ -13701,30 +13701,30 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.8034114064871859</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.83660563589007486</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.80829069354328609</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.67987718457799873</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.55708415828764546</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>1</v>
+        <v>0.62900173999194142</v>
       </c>
       <c r="U67" s="0">
         <v>0</v>
@@ -13838,7 +13838,7 @@
         <v>0</v>
       </c>
       <c r="AM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>0</v>
+        <v>0.98027398624402529</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.93671328112959462</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.74308227149100559</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.72516788449809688</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.93049165827590952</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.78917830149659207</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>0</v>
+        <v>0.68964431817093219</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="AM68" s="0">
-        <v>0</v>
+        <v>0.89078906636749444</v>
       </c>
       <c r="AN68" s="0">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="BK68" s="0">
-        <v>0</v>
+        <v>0.99475517384000223</v>
       </c>
       <c r="BL68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.79324343045082757</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.52778333788408527</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject5.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject5.xlsx
@@ -134,7 +134,7 @@
         <v>0.77580724980752813</v>
       </c>
       <c r="C1" s="0">
-        <v>0.82586055366399336</v>
+        <v>0.9811601196580918</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -329,12 +329,12 @@
         <v>0.81718408808870158</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.83812111459091332</v>
+        <v>0.93049165827590952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.59945557633100943</v>
+        <v>0.77580724980752813</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0.63907073204947362</v>
       </c>
       <c r="D2" s="0">
-        <v>0.50502040455634867</v>
+        <v>0.76223124490013561</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.68741968858033697</v>
+        <v>0.78917830149659207</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>0.9811601196580918</v>
       </c>
       <c r="B3" s="0">
-        <v>0.56743211852444908</v>
+        <v>0.63907073204947362</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>0.82644630462241553</v>
+        <v>0.91227132869627114</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.86797070797090292</v>
+        <v>0.97452961514690473</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.57500096329822148</v>
+        <v>0.59758593918418501</v>
       </c>
       <c r="G5" s="0">
         <v>0.85526944704841479</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.68781815798970869</v>
+        <v>0.87320026544191176</v>
       </c>
       <c r="E6" s="0">
         <v>0.59758593918418501</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.61563742196606985</v>
+        <v>0.85526944704841479</v>
       </c>
       <c r="F7" s="0">
-        <v>0.60619236323764136</v>
+        <v>0.94892009155707435</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.84493915912732209</v>
+        <v>0.85765176500167839</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.58359846954576</v>
+        <v>0.95238020131827383</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0.71317889394818601</v>
       </c>
       <c r="K9" s="0">
-        <v>0.95583349362269976</v>
+        <v>0.96832258681677652</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.78141562386532681</v>
+        <v>0.8042736446165426</v>
       </c>
       <c r="I10" s="0">
-        <v>0.58250837973955139</v>
+        <v>0.71317889394818601</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>0.71979264498969897</v>
+        <v>0.82884980258872742</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0.96832258681677652</v>
       </c>
       <c r="J11" s="0">
-        <v>0.68373706687040647</v>
+        <v>0.86892764092634467</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>0.7080149028834678</v>
+        <v>0.9296230795448075</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.82471672105423899</v>
+        <v>0.83537939909408776</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0.61628624808411336</v>
+        <v>0.76397508179366869</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0.78944545748440009</v>
+        <v>0.92774004978385527</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.66534326727268089</v>
+        <v>0.77734087085826553</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.7285019482774564</v>
+        <v>0.93073947845747451</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0.90995290647893845</v>
+        <v>0.99960469088814308</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.75942776169615611</v>
+        <v>0.97950787499907921</v>
       </c>
       <c r="N15" s="0">
-        <v>0.5947750978668449</v>
+        <v>0.75727075362067642</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.52389182048286498</v>
+        <v>0.89264036866478902</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="0">
-        <v>0.5832435907731901</v>
+        <v>0.8625726215915841</v>
       </c>
       <c r="BJ16" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0.89264036866478902</v>
       </c>
       <c r="P17" s="0">
-        <v>0.68934814965265279</v>
+        <v>0.91837301366792334</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0.90511986346440443</v>
       </c>
       <c r="S17" s="0">
-        <v>0.55908039887137706</v>
+        <v>0.92630010687754738</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.5327362399770641</v>
+        <v>0.84745787227355418</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.70891372885897852</v>
+        <v>0.90511986346440443</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.651825239307949</v>
+        <v>0.82862081351744687</v>
       </c>
       <c r="T18" s="0">
-        <v>0.50121530131755399</v>
+        <v>0.52106677290557768</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>0.7660937479372486</v>
+        <v>0.90361888390836598</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.50865862791668548</v>
+        <v>0.51949561337232275</v>
       </c>
       <c r="U19" s="0">
-        <v>0.60197053841695891</v>
+        <v>0.67065730282689007</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.65394402000846408</v>
+        <v>0.75149412252086489</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.55314383386770027</v>
+        <v>0.80298159120256918</v>
       </c>
       <c r="W21" s="0">
-        <v>0.60022565899393188</v>
+        <v>0.90441495442881248</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0.57036335278866046</v>
+        <v>0.79832963905269672</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0.90441495442881248</v>
       </c>
       <c r="V23" s="0">
-        <v>0.65790415227779153</v>
+        <v>0.91824266758032158</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.50434658758268869</v>
+        <v>0.98024396303251082</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.65555992747198433</v>
+        <v>0.6761871392911758</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,10 +5147,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.67459411929274227</v>
+        <v>0.69097955528154642</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.50165402503352685</v>
+        <v>0.59728114105203201</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0.5227830831842134</v>
+        <v>0.95430484005366334</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0.59728114105203201</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.97124895606041961</v>
+        <v>0.97481533237734974</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.60460570193202834</v>
+        <v>0.82062999167060213</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>0.60428947425890822</v>
+        <v>0.75556373734932558</v>
       </c>
       <c r="BH28" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0.76355538005975365</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.63646226570378106</v>
+        <v>0.96851713497441549</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.60840968355910263</v>
+        <v>0.76355538005975365</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6264,10 +6264,10 @@
         <v>0</v>
       </c>
       <c r="BC30" s="0">
-        <v>0.67430128613642459</v>
+        <v>0.88928286861649375</v>
       </c>
       <c r="BD30" s="0">
-        <v>0.75482538951690703</v>
+        <v>0.75806744760135714</v>
       </c>
       <c r="BE30" s="0">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>0.56008149134186858</v>
+        <v>0.98306459256651046</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>0.82323494857086355</v>
+        <v>0.92500958106403852</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6604,13 +6604,13 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.53713189248195459</v>
+        <v>0.90816037399848604</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.68235455754391316</v>
+        <v>0.85177307478118136</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.7737390237229298</v>
+        <v>0.84894917488629118</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="0">
-        <v>0.5735689793543497</v>
+        <v>0.8623830003939521</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0.61491332718429792</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.73914172227768737</v>
+        <v>0.7960856010860895</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7231,16 +7231,16 @@
         <v>0.84894917488629118</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.56600104860251554</v>
+        <v>0.61491332718429792</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.69289209109070748</v>
+        <v>0.87777894102342224</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.59107111681806335</v>
+        <v>0.66081358933869438</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>0.80911911625885535</v>
+        <v>0.96607526541938493</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
@@ -7649,16 +7649,16 @@
         <v>0.66081358933869438</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.58476428133313996</v>
+        <v>0.58922971266596225</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.60960414160688481</v>
+        <v>0.79118002822396827</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.87813917625978855</v>
+        <v>0.9626672622520267</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0.54635133291696869</v>
+        <v>0.80150218151285557</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.65076672439072003</v>
+        <v>0.77725935457090234</v>
       </c>
       <c r="AK38" s="0">
         <v>0.79118002822396827</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0.87226516527340081</v>
+        <v>0.91051016801473628</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0.75940067663568034</v>
+        <v>0.92768590270754614</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.64355843422662362</v>
+        <v>0.95050514651407658</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="0">
-        <v>0.86738946544119888</v>
+        <v>0.89078906636749444</v>
       </c>
     </row>
     <row r="40">
@@ -8285,7 +8285,7 @@
         <v>0.84595425816206848</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.62836281561176532</v>
+        <v>0.7821657685468979</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8485,13 +8485,13 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.76684700638544268</v>
+        <v>0.84595425816206848</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.57922794942681677</v>
+        <v>0.90081215763731359</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8700,13 +8700,13 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.58899142835050178</v>
+        <v>0.95982139319267734</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
       </c>
       <c r="AS42" s="0">
-        <v>0.52402896709562574</v>
+        <v>0.66437897386374689</v>
       </c>
       <c r="AT42" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0.6951344603967381</v>
+        <v>0.71390757115003911</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="0">
-        <v>0.70088897125527905</v>
+        <v>0.88125151277774783</v>
       </c>
       <c r="AM43" s="0">
         <v>0</v>
@@ -9106,19 +9106,19 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0.5146936589777773</v>
+        <v>0.72605111947636625</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.84489761374216854</v>
+        <v>0.97655526401450676</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.7415594917961571</v>
+        <v>0.94806507951923535</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="BN44" s="0">
-        <v>0.76315870969406607</v>
+        <v>0.82641746595946419</v>
       </c>
       <c r="BO44" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.69294376208691544</v>
+        <v>0.99133393506134926</v>
       </c>
       <c r="AU45" s="0">
         <v>0.61775422170727912</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>0.78879798640423116</v>
+        <v>0.91645491246673516</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.58483523141327376</v>
+        <v>0.61775422170727912</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.78322371975954752</v>
+        <v>0.89275396889809255</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.50424406175306202</v>
+        <v>0.7631058399246915</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.52731887934301525</v>
+        <v>0.74454229682384176</v>
       </c>
       <c r="AU48" s="0">
         <v>0.89275396889809255</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.79778177255257177</v>
+        <v>0.87284602406716205</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.51149423314162634</v>
+        <v>0.92424000000394724</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.64141510549541259</v>
+        <v>0.85235611279686663</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0.57660580549799045</v>
+        <v>0.80169639595963949</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.66192239827148303</v>
+        <v>0.73785634822021762</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="0">
-        <v>0.50549782848873348</v>
+        <v>0.57377442424144398</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.7937652950567049</v>
+        <v>0.83975031564942193</v>
       </c>
       <c r="AZ50" s="0">
         <v>0.94038045403084647</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>0.82951212142052067</v>
+        <v>0.98027398624402529</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0.62386304789950797</v>
+        <v>0.72276186346140148</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0.62045815692316619</v>
+        <v>0.98827977063021244</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.64684877864394186</v>
+        <v>0.94038045403084647</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.64509551996424308</v>
+        <v>0.8697325084862827</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.54648945555685291</v>
+        <v>0.97042443651324728</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0.67424829041846901</v>
+        <v>0.8346838618446133</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.63940990697397138</v>
+        <v>0.67559918230020821</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.77607008679421741</v>
+        <v>0.81999040926664102</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>0.63974303996701787</v>
+        <v>0.77552984195835928</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="AG56" s="0">
-        <v>0.69721330951828353</v>
+        <v>0.7139357499703376</v>
       </c>
       <c r="AH56" s="0">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AO56" s="0">
-        <v>0.5061738030503341</v>
+        <v>0.74929719690449814</v>
       </c>
       <c r="AP56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.62385732840717223</v>
+        <v>0.87841657614734925</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.50730855838323086</v>
+        <v>0.96183672226651762</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -12038,16 +12038,16 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.77253707201966115</v>
+        <v>0.85022961267051844</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.60220818075861393</v>
+        <v>0.85708498216777751</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.71339316007043196</v>
+        <v>0.94334044540144601</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.71492298255120734</v>
+        <v>0.84143432761112713</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.62457754083797967</v>
+        <v>0.97003156972527826</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.59772841445396385</v>
+        <v>0.6182967660375468</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.60269129479393502</v>
+        <v>0.95079386513254627</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0.7066790552978881</v>
+        <v>0.75480858314986876</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.67576049008765526</v>
+        <v>0.87147423912788757</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.55973269634889444</v>
+        <v>0.88694171198803429</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.87097044619841713</v>
+        <v>0.92624902612836202</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="BP63" s="0">
-        <v>0.98080773538942667</v>
+        <v>0.99475517384000223</v>
       </c>
     </row>
     <row r="64">
@@ -13501,16 +13501,16 @@
         <v>0.92624902612836202</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.78433081334402943</v>
+        <v>0.80254336285545247</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.73231886206107411</v>
+        <v>0.83660563589007486</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.59955745397931315</v>
+        <v>0.93671328112959462</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.8034114064871859</v>
+        <v>0.96935568923703186</v>
       </c>
       <c r="BM66" s="0">
         <v>0.83660563589007486</v>
@@ -13719,12 +13719,12 @@
         <v>0.80829069354328609</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.67987718457799873</v>
+        <v>0.79324343045082757</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.55708415828764546</v>
+        <v>0.81718408808870158</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>0.62900173999194142</v>
+        <v>0.81336993139075353</v>
       </c>
       <c r="U67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0.93671328112959462</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.74308227149100559</v>
+        <v>0.80829069354328609</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>0.68964431817093219</v>
+        <v>0.83508116517173048</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0.79324343045082757</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.52778333788408527</v>
+        <v>0.72516788449809688</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
